--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/30_Erzincan_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/30_Erzincan_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE138244-54AC-40C1-879B-BC047BDCDD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{834575FB-4BB6-42A7-84D7-4209FB824DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{1B8F0DC7-EDFD-4EB4-BDAC-337F4972F30A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{C9076894-B51A-4501-B8E3-3173D37C2AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -931,13 +931,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{54A69027-A209-46A4-BF4A-9E488BC71296}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B2676FE6-4E29-48F3-91C5-C04CDE666C84}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{A7791A97-BEC9-4AA3-9FBE-C9F811B01C45}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{5CB56B27-DEED-4478-BF84-5C02E3DAD2A7}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C74B99E7-277C-4364-96C2-6C6C9F34D33A}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{5B0EE7D6-29F4-4CA8-924C-666B9361DF25}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5CAD5338-5522-4232-82EF-7DB2730C1FCB}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{122A5B7F-BC0B-4E0E-9CCB-2B15058258E9}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{FCA00289-48A9-4E42-9599-6C65D685328D}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{6DD39733-4A22-49B3-8C4C-3A482574C3D1}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{38EB06CF-1E61-46D0-B7A0-50F0658FF22C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{20C0BA3F-0F0B-408D-A2C1-A68A977AD696}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{15762601-0932-4BD2-8FD5-4CC7622CB686}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{048618CD-2D26-4559-BA03-F9E0238085E6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1307,7 +1307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAA3E8C-59B3-4C5D-B9E6-0C4199CB5F10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FD54C8-1AC0-4291-BC26-A4AFB5CEBD77}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2512,18 +2512,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B3DB63B2-28E3-4547-B1FE-FBA8F044DFC0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{09A7EC97-CE11-4C79-994F-E365F41FF9CC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5735631D-B896-4F65-9AAD-AE43E7FDCA90}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8DCB28E1-E5E6-4BB2-AF66-1F59EEC0F7E1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{315F9CE3-9381-4CA3-94B4-1BFD1CB71791}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B7B9997-5B88-465E-9DAD-009568EB8682}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{096C2BDC-75ED-47DC-B358-44DCBE200C90}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5087E345-69BB-401D-8104-6B841064571A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{12668FE5-7794-4248-886A-10E84CF04724}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3DA88CA0-CE8E-473E-8F5F-D4BC85CD5A1C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{997D82C4-ECF9-4FB7-BDAF-33FF592FD1A3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02A15F57-5F81-4109-ACAB-BA0FA3A212F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26BA617B-A0D2-4E73-A4FD-50C682DAA755}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C7F97DD7-296F-467F-A0F0-07AB21B652E2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E6A7F050-04FE-4D41-B552-3AF8F4E6584D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A73A1A6F-1724-4CD4-B56E-5DF482A1A2FA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CA48C16E-879F-4BBD-9D54-AE8AB14D638A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B1EB3FE-6D4A-48FB-AED3-53DC6404A6C2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38B5CA61-5220-4ACB-BA08-48822682D366}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B712CD02-A25A-4960-B598-9ED051B57EE7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E0028F6F-3F94-43C0-B825-1B848A62BA89}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BA6EFC3C-2BB4-4755-B594-CDD3B889640D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C54E135-7FE8-4D17-9D74-15A877B09DEA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{094D05D5-5A05-4633-AD60-680FBFE111F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2536,7 +2536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1FBBAA-3526-43BD-B66F-84C71F42B807}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD83410-358A-4C63-83A2-CBDE453BAF3E}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3726,18 +3726,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A035F71E-EE79-4FA2-B5BB-8C9214380A6F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{04DAB5D3-F787-4083-80AB-19D157CC376E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{298BC5DA-D559-4CB7-B317-BFA1D96FF364}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{54E4462A-61B1-4767-B29C-7108514C6629}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{742DEFA3-EAB7-403A-A627-3CA9836CE88B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8FED605A-8A69-43CD-85E3-92121B0D417A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{24C42178-BF92-475E-842A-A87408C567E5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{725DA507-412D-449E-94E4-16C68A717F08}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9CE2EB00-22E7-40F1-8D0F-B320D7E89CB1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{60949B03-C0EF-4517-B449-F2D0FD8F6A35}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1ACAE381-EB3F-46ED-93A4-F879CFA45AB9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D45AA748-7707-4CD2-99E7-7989A000E5FD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A829D8E0-BF39-498A-9B8C-15599103974C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1741D2B8-B83A-4071-9867-CC5E44D1423D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57E74FBF-6E4C-4624-AF99-8EE4900D0BAB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E955E29D-6C0C-41B4-955B-BB91D90ABF22}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{30EE4197-5088-459C-AFB6-51123B7509D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B3B280C-153D-498A-BA38-1B0A27F3403B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E7F378B-18C1-4E96-9D68-CEA880582E21}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B3397DD9-3E29-4607-A1C8-D1D24C9CA6A1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A106659D-0E2C-4394-8592-55787EB39FD0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{72C50336-80D6-49F2-A60C-B4DCC06CCA86}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A428A83-7E5A-4A95-8924-CEB3CBD66F67}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7FA693D-757F-4221-ABA0-1DABF3AD053C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3750,7 +3750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5864828B-E943-434B-88A5-BBDADA2C8B5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E66DCB-CF3C-4E82-842B-6E967B3842AB}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -4936,17 +4936,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA32C5A0-527E-4B07-88F9-6E260EDAD2F8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7F7B6B46-165B-4B06-98C3-2EAFB710B894}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{08E7F864-D0E4-4BEC-A445-1FFCE134A900}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F70D867-9588-4108-A9B0-461A998AD5F2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A88E3BC1-DC97-484F-A72F-A343F861838A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7A68B7E0-40FF-478B-B4A5-7758AB0E1C4C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F614E50B-2EAB-4323-872F-F21497A63019}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{663C0C05-A39E-4E37-B569-5A7008746738}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8C1DCA8B-5F15-4C48-94E8-F9AE7E86D3B4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F72584DB-2FF1-4B7E-A16E-59024E8E3FBF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C437F8DC-7BBC-4A05-A0C0-591277C5712C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E4008912-014D-4784-B489-87889D2EA0C1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C415E786-FBC9-4B55-868A-CFCCEE30527A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EED9DC6C-EC11-42FB-9B54-ACBCD691DE19}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1529BB7-5A58-476D-86A5-8045AEE25EE2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CCE9CC65-B282-4175-ADCD-843CA05F3629}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{48EEE740-C17B-428D-9F82-DF6D74FB56EA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41DDF8FB-3829-41FC-932F-8B8C5A4EE8D7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53C905EF-FCCB-4EF1-814C-6AC42D34B919}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{26E7AD96-A7E6-4E2F-85EC-BA4E10B0B7FD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1D7AA34-2484-4C81-ACD0-415C6E381457}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{83D5FE12-AB16-4512-BC50-601BB1285421}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4959,7 +4959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83CD13A-C8D0-4AA5-AFA0-2B4319BF92AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82363602-9DDF-4694-82AB-12FFB0D79C00}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6145,18 +6145,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2A15337-1C63-4D87-9465-24F52F51B87A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8ADB6130-272B-42FE-B5BB-135B30C1B1A7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E95687DA-2EA4-43C8-800E-39DB15BBF5DC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C28CDC93-EAA0-4195-9032-C19D2896A6CC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2DD7191A-05DB-4398-8C9B-E53CC7EDA91E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA826603-7EC7-4869-95E5-DD92C5D08500}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{304BAF27-E9D8-49CB-A88C-56E7448E2835}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13555B8B-FD05-4BD9-8768-2FA1238729A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5664D622-B524-47AC-8318-4202DA141E6F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9BC8D72E-AC9A-40E4-AFD7-8E0DFA7BC90F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A5EEDB3C-FAE2-4325-B679-FAE929CE4BD2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5C310437-007D-4635-8883-52235B5BF06B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F85493E-E28A-42C1-BDC3-A23486BB0594}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{66AEFF8D-DB8F-4E8C-B6FB-48EFD83E0824}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{450F5A5C-11DB-458F-8C13-EB895F209F1F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D1D2DDD5-E922-4ACD-ABFE-1E653E53E836}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BEFED24A-93AA-45CE-9954-FDF7A40F31F4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{89002D50-8200-4E14-B95E-53CECC14012C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F7C8B12-3AA1-4E34-BCD9-B45E1EAFB7A6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{98E9B7F0-C3A2-4558-BF59-FAFC60217DEB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2B8D3880-FD83-4BC2-BAA8-4BE4E3C19123}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DB789759-C990-4D2E-A969-7595AD9C0823}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C8A1479-1A18-45CE-B697-0CBBAF1BFB17}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0C0ACEBB-EFB8-4181-9D70-E3F67754417E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6169,7 +6169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524EB932-206A-47B0-A14B-A9D7EA2D8C6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E059993-CC50-450F-B6E6-6F4947144830}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7374,18 +7374,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9002B2A5-BA59-49C2-9D43-3C465EB629C1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{227AF090-5C0F-42CD-9E6E-580E3120B359}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{371D1CC8-B789-465B-95AF-2880B872B9DC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A8EE63BE-3FCF-4881-A849-5A4347D22C83}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A048EC89-D818-4600-AC4A-DE39F80AEFDA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{310B3538-E16A-4370-A456-1E9970F502A1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E94E6192-7820-41D3-A4AD-134CBBF41939}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82527FDD-F98B-446C-8623-629C60FD0370}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{93F6B0D8-FBAC-40BF-8D2F-1D417F622428}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D85636DE-A5CA-473E-AA4E-DAB9459EFD10}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA66F10D-F671-475E-94FD-D5BD6545B2E0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AACB89B5-4D4D-4EC0-AE44-89B5C14E7DCB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00AC6B64-61DD-4AD2-AEFD-11C09490978B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4BD8F573-C851-4CC6-B438-F0C0B21CB07D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77CBE349-562B-42CD-BBE8-1FB8C9BBB25F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{41F7BC69-DB69-4A2A-9B05-BACE8B6F365F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2DD52C2A-9A98-472E-B7E4-B9206A2AC734}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3EFB60E6-20DF-48CF-A5A9-487C854A3CC1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31A8132F-02B1-4D7B-A3B7-D361AC2261E9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7ABFBD80-F169-47B7-B123-42CFCF6B990C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AE1C51F3-0DAA-41ED-959A-D5967FAE3BA5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3BC062AE-A060-42B9-BD7E-F538BA3FDE94}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7EFB144-980C-4EBE-A3B8-B966F2078B23}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C75281B4-281C-465C-8A65-79D413D5E0D1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7398,7 +7398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F758D448-D7C5-4DBE-A687-C647EC898A70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB50782-9579-494C-ABCE-730E4356518D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8599,18 +8599,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3DBD7D39-DFC9-4317-85A4-BC5A760A722B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B962182B-73D7-407D-BA99-54A50A91A67E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50CC341F-74F7-4CD5-B01A-39DC56763281}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9A9C1C7E-F68C-47C6-BBD1-6F11D3381F46}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2CDAA804-DF75-45E7-B878-9CC6FEF8923C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6786804B-D49C-4894-88BE-7D49E09A5601}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{48EB1C65-75A4-43C9-A47E-C19000395755}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8016A4DB-8BE9-4650-ACB8-CDE015779408}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3AFABCFD-6EE1-4CA0-A9C9-D1C98F80229D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2510437E-60F6-4806-8A6F-313F59D35499}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{750F62DD-8EF8-4DBA-886E-B4A891A55BD8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F3A09331-AD0D-4A91-93C5-A8C6FC2C81AB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C3CCDAE-C070-4459-AE86-A2E063A1AF05}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4CC442F1-652F-40A9-91BF-DB43541FAE92}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B79A8977-9319-4F25-95AF-D87CFF9BE21F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2B84EF42-C1A3-4D3B-B9A4-34CE26FE3DB0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{92B5541C-EAD9-4F38-8F63-69DF48F5F603}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D2F6090-1078-4F10-8CE9-8C487855D43F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44FD5C28-4313-40E1-9390-ECEB9C110E7B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{685E2400-6863-458D-9176-77A816567DE4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A9EE5DF8-4C13-402A-AE12-FCBB87CC4CF0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{04455470-D0E2-4346-930C-304C43EB8735}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3AA5F507-2F58-4D17-9BA2-5242F11BB1D2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{772981A9-6E10-4E8A-A3E7-9E2FBEA146B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8623,7 +8623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D91A44-CBC8-41B3-B7C1-4BB275DC2A35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD631B5-9F65-47E6-BAD9-490F593CFFE1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9824,18 +9824,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5FFD596E-CADB-4523-9855-C48F2671DB8B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9B88D940-01DE-45F7-A982-05C9413CCCAE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2DF94919-C14A-47C0-8FC3-60B038141B62}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8BCD9431-86A8-4260-92CB-5371F6D1BEC5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D990CCC-0663-47D8-AC49-84E1F9124C47}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5196751A-8F68-4E35-AFCA-652A97083792}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A0BED5EA-A109-40BA-AEDD-CEEBB8B6BC6E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BAA0020E-D6FC-4C27-8A2B-7E259219FE04}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6460FBAD-3615-4E75-AFA1-6931A4DFA360}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9494A149-2728-41D1-9AF5-5A77913483A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8884D285-8913-458B-B558-3C0CDE495476}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7DD37242-0428-4B73-9406-5653F5D1E48D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9834AC53-DE42-454A-9B44-2C8D5DE3412F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C8E996F6-41EF-422B-93DE-CE28F76D38D0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DCE9FCB3-43A8-4584-8684-E2EC995445C8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0220B01B-4412-4D58-8BC6-992738869DAC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2FF12B80-69C3-4A97-91B0-63104A0475A5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F0467861-05DD-4AE3-8711-07066EAD5BB2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF45C5D6-64BE-4BB6-BE4E-FD945F54C414}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{11F46871-7CF7-4827-B951-7992E455A338}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0DD1B372-9D16-41CE-9E24-02C6C46216BD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E6D3ED31-6D0B-402C-8AAB-9F88D5C3F761}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{54032EE0-A334-4CCE-A687-7D0ED56CEE9A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{411CA987-67B0-4F84-BB5C-18B22F59921B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9848,7 +9848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30E8576-AA40-4311-8FD8-AEF1546723F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D7DC4A-7375-4003-9BC9-309B34E5B672}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11049,18 +11049,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9A341274-9AF7-4B9E-A757-12176A22B6DE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{35D265E6-221A-4B1C-A5C3-46E630EBC2FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{388AA66D-7B30-46FF-9101-A9014E043FB5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6E512483-870A-4951-9603-716AF6D26194}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{403F1EF6-8B68-4F92-9629-D02130BBA7E2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{48AFEA9A-C850-428A-BBE8-1F270FA280B2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7FAD258D-F444-4326-88A1-E5A34B23605B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8B32B29E-968E-4D61-B242-757D17BD02E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{741C269B-F664-4D3B-9F0F-3E54759D48C3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8805A8A7-147F-4AC3-960E-59962ED0AF65}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ED5A90FA-1C4D-486E-B11F-4E5DEA857009}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52FED737-9873-4000-8C90-1DB74083AA08}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9BEC23A-0007-4CF5-B7BA-DFA093DB240D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{68163394-A722-4005-A73C-4FCA3E7ED55A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87A311CA-60FB-4FAC-8BF6-210C097EDBEF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{65FA8C93-97B6-4DA5-ABC6-B3D20A96072F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{13ACAA1A-81F9-4BD3-95F3-17B0D24263BC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AAA18278-39BE-43F7-BC1E-043998C1080D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{993AC9FD-69A0-4484-8578-319C3BC90E7A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{18561F7F-B686-4220-A5A1-003735B744A1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3700BA85-D419-40EC-B2F7-03B0D3045AA3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{26454F72-D5B7-4AA5-9806-432C24DFBFC3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{56EEAB0A-7786-4D98-BD76-879D3B99EB2F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B10A7B70-C7CA-4765-A341-16648338B9FC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11073,7 +11073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114766ED-6A75-42F2-8CAC-A27AE334B1D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112D55C1-144C-4B2B-94C5-963C5C96A9AB}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12262,18 +12262,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9CC5F34-9136-42C5-897A-836B61EAE3A8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D6E42308-3EB2-4D31-9D86-05365A6274F0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36678A7A-6380-4F7D-A467-0ADD4241681B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2B40231E-DC6F-4AE7-855D-425B70D7F754}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{950C2F76-4FD6-411A-B3FC-89908E8406AE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{30759C28-E810-4664-91FD-D8B2EC1B2F85}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{869BEDEE-6883-430E-901A-99FA591AF5CA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66504584-60DA-4AB3-A161-E753F4976AE8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EA72E360-AE29-4609-A637-B519F4DE6DAB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FCA1326C-8185-4284-949D-111E12F1F762}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{256C381E-F9B6-4E93-B02F-10E936C97888}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2DF25B71-87A6-4886-B4DF-19914E47FAAD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{02F6F9FE-2833-474F-B4AA-8512B784977C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AAD1AE9D-1D9B-4F36-933C-7D3D62068479}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A72B149E-EF2D-4B12-9584-A7E845CD6499}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A8175FEF-E790-40EC-BFDA-5AA5ED860503}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{19CBE470-E468-448F-A1D4-81257FBE753D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FFCD9A86-4C3B-4B27-8A5C-F361EF723B73}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6F7D0F0-EED6-4A64-981B-8CCF00087B8C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BAF9BFDD-CF24-47E9-A548-FE57CD5A677D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C33C18BF-20D8-4FBB-B733-F9FA188F6751}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{806369BE-B88D-405C-BD2F-D29911666220}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B89A298-79C6-4F4B-AF76-4811C99E1DEB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1E5D934E-EF2F-4E60-8EF7-D6543A1F5B56}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12286,7 +12286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24FEF0C-4C46-4479-B023-4595574584E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F273CA33-DAEA-43F4-95DA-6311AFC0E781}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13476,18 +13476,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8784B99F-D23C-4492-9CA1-816917E0E4A0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F774838C-5852-415C-B02F-1AD397635532}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FEBA6348-7535-4507-B891-497F564DAD2A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9530981E-CB89-4933-BE4E-8F45B30D756E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4145A0D8-00AB-495F-92F4-1B010FE3A263}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB117586-E7A6-4DBD-9575-2045915E0F1F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{77970705-B9A2-47A5-B9A4-30BF4CFE7D0E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8DF9A47F-9E27-4A81-B2FB-D2D779AD3823}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2958380A-2F81-40C2-B6EF-AEDDC5017ECE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{418DAEE6-5986-4F68-9BA1-67728483D6BF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{91537756-67B3-4C90-95EB-7546E7540940}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F3323D9E-D9BB-461F-816F-67D8B95E3C12}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC7D0F70-8A61-4DDE-B4C8-6ABDE7780E1D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CA271D43-9FEA-4A9E-B910-6116FF2FD181}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{949491A1-F4A8-4C1B-9BC8-587A971823CF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FC11C77A-3129-4454-BC92-E290CE13B646}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1E5B11FD-DA2C-410B-8E07-1454BF08A3A1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{35C42A4F-6444-4E8E-8E6E-D301E53FB0D5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6E860F0-9C13-4062-B3EE-8D5912B7486A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{721A6736-0047-4395-BA57-9BA3CE37807F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A9631ED-F5D2-451E-AEDC-A7B54A697EBB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4571C62D-2E18-4DBB-9CCF-2F6A1323DB9E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5723DA5F-B843-4ACD-B712-D628FC9F1AEB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB5FB495-7BD2-45A4-97D3-77EEC612D76D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13500,7 +13500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA1D495-73BD-4FE6-AAC7-CF4B5338082F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87ABA79-73F3-4772-9645-6F45FE3A9B92}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14690,18 +14690,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7ABDACF-D541-4642-8F34-E3FB28965855}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{565200ED-4338-48CD-81B2-1D378E582E9F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50C38F89-7385-4773-9A48-597CA9695E04}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2BFD2C7A-9D3A-45F8-B663-8739C5E889F0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3D72DB48-3F94-4EC2-B8DC-676E36EF9F06}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D10EC66-6134-4C1D-A40D-94210AEE71FE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F559F222-A359-44AF-8777-695953D76C44}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FA20EDB-3536-4CB6-99BD-4BE152DC935E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4DF8DFBB-906F-4882-81DD-D98BDB30D0D9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{53C8EB15-70E8-413E-B7BA-A3C43B191C1E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{318D1E9D-5902-4BDD-835D-A0DA87D6B862}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A696423C-285D-427D-BFCB-0CF2A8D97F39}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6237BFD-47FE-4D41-A63C-3775DC06AE8D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F99EA2BD-FCB5-4B49-A66D-AB17C88ADCFC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B273CCF9-FBF7-432B-9EBC-EFE4BC6CAC86}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AF7080A4-5B21-4BC5-AD3F-54CA2CB48CC4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{41E55A8A-A0C3-416B-9D98-00A408DC2280}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CC2CA466-24C8-4697-8146-382C321D0C67}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C144EA40-544B-4DE2-AA37-FB3723724BB2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1BA101AF-9B77-4B10-A66F-6CA4A89C8A4C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{63986830-2D93-4C22-85D6-AD73CF35917A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{77B31EC4-D438-40DA-B554-C6BF65EC96D5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78D50AD7-2484-4689-9E23-D0FDB7C8C0CF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA56CCE8-2B67-496E-BA93-8008FD10ED6E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14714,7 +14714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C4D3F2-4C2D-46BF-ACAE-F2F061F10CEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C655CC3-0549-48F3-A75D-A4C7B2163D51}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15904,18 +15904,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{88B5C050-4FE4-4C55-9E39-74337060150E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DD5C6D2D-09A8-4E5F-A5DB-C6DFAC6FCB64}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40DA769D-766A-4D15-9123-C237AC944FF2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7B2CF13C-2088-4E8E-ADF6-70C072A3B0B8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A6F675D-B00E-47F7-8249-E19C5781BBB5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EAFDBA51-FA6F-4C1E-9067-213F4FF8B550}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F23A9AE4-1BDD-48CC-9225-3E8DD09CDD20}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8C20AA6-D5F5-4F0E-812C-D7B0A3A999E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B62380E-36EF-44E2-95A3-5F84443C504D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{049425EF-AA36-4133-A6DA-0CA5CD338CCD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8EA3A648-8D72-4B85-A804-009339E99828}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E655F1E5-82D6-418A-A921-4D8882CC4B7A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76A228EA-09C0-4867-9999-42CBDBB6BEB8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B3DFE971-BE04-4778-8BC1-E54CAD5F671D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{20A39DD8-71ED-4EEA-BEE7-E3F4604A8C11}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{441FF1D4-498F-4B2F-909B-ADC94C7B7DFD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{485DEACE-32B0-48FD-9F94-2EE6C0EB0CA7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4C02C675-EB8B-4268-BA0E-D9B109B033D8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{643B391D-4876-43D9-A7AD-3B3BCF194DE6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6F645E9-4B42-4668-BAE3-41EF8549B226}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{51514891-27B1-4C17-A4F7-98341A42EA91}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{30720CDC-C4BA-450D-88DB-317CC5FAB0EB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA21CF3E-7D2F-4295-83ED-4C2F8BA7BE0B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A36BDC52-CE25-4CDB-8995-0E828E0FE243}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
